--- a/OutputExcel(xlsx).xlsx
+++ b/OutputExcel(xlsx).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
   <si>
     <t>Sorry, there are no results for GGZZXX.</t>
   </si>
